--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H536"/>
+  <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6581,10 +6581,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -6619,10 +6617,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -6657,10 +6653,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6695,10 +6689,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -6733,10 +6725,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6771,10 +6761,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6809,10 +6797,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6839,10 +6825,8 @@
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6869,10 +6853,8 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6899,10 +6881,8 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6929,10 +6909,8 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -6959,10 +6937,8 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -6989,10 +6965,8 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7019,10 +6993,8 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7049,10 +7021,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7079,10 +7049,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7109,10 +7077,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7139,10 +7105,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7169,10 +7133,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7203,10 +7165,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7241,10 +7201,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H198" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -7279,10 +7237,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7313,10 +7269,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -7347,10 +7301,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H201" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -7381,10 +7333,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -7415,10 +7365,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7453,10 +7401,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -7491,10 +7437,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7529,10 +7473,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7563,10 +7505,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -7593,10 +7533,8 @@
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -7623,10 +7561,8 @@
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -7653,10 +7589,8 @@
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7679,10 +7613,8 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -7713,10 +7645,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7747,10 +7677,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7785,10 +7713,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -7823,10 +7749,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -7861,10 +7785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -7895,10 +7817,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7925,10 +7845,8 @@
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -7955,10 +7873,8 @@
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7985,10 +7901,8 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8019,10 +7933,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8049,10 +7961,8 @@
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -8083,10 +7993,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -8121,10 +8029,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H224" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -8159,10 +8065,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -8193,10 +8097,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8223,10 +8125,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8253,10 +8153,8 @@
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -8279,10 +8177,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8309,10 +8205,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8339,10 +8233,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8369,10 +8261,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8399,10 +8289,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8429,10 +8317,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8451,10 +8337,8 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8485,10 +8369,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8529,10 +8411,8 @@
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8559,10 +8439,8 @@
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8597,10 +8475,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8631,10 +8507,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -8669,10 +8543,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -8707,10 +8579,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -8745,10 +8615,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8775,10 +8643,8 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8809,10 +8675,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8843,10 +8707,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -8877,10 +8739,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8911,10 +8771,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8945,10 +8803,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -8979,10 +8835,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9017,10 +8871,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -9051,10 +8903,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9089,10 +8939,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -9119,10 +8967,8 @@
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9149,10 +8995,8 @@
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9187,10 +9031,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -9225,10 +9067,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -9263,10 +9103,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -9297,10 +9135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -9331,10 +9167,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -9369,10 +9203,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -9407,10 +9239,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -9441,10 +9271,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -9475,10 +9303,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -9505,10 +9331,8 @@
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -9535,10 +9359,8 @@
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -9569,10 +9391,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9603,10 +9423,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9637,10 +9455,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -9663,10 +9479,8 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -9701,10 +9515,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H272" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -9735,10 +9547,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9769,10 +9579,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9807,10 +9615,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9841,10 +9647,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -9875,10 +9679,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -9905,10 +9707,8 @@
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9943,10 +9743,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9981,10 +9779,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H280" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -10019,10 +9815,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H281" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -10053,10 +9847,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -10087,10 +9879,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -10121,10 +9911,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -10155,10 +9943,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10189,10 +9975,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -10219,10 +10003,8 @@
       </c>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -10249,10 +10031,8 @@
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -10279,10 +10059,8 @@
       </c>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -10313,10 +10091,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10351,10 +10127,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -10385,10 +10159,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10411,10 +10183,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10445,10 +10215,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10471,10 +10239,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10497,10 +10263,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10523,10 +10287,8 @@
       </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10575,10 +10337,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H299" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -10609,10 +10369,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10647,10 +10405,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -10685,10 +10441,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -10719,10 +10473,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -10757,10 +10509,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -10795,10 +10545,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10829,10 +10577,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10859,10 +10605,8 @@
       </c>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -10889,10 +10633,8 @@
       </c>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -10927,10 +10669,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10965,10 +10705,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -10999,10 +10737,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -11037,10 +10773,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11075,10 +10809,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11113,10 +10845,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11147,10 +10877,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11181,10 +10909,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -11211,10 +10937,8 @@
       </c>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11245,10 +10969,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11275,10 +10997,8 @@
       </c>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11305,10 +11025,8 @@
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr"/>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11335,10 +11053,8 @@
       </c>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11373,10 +11089,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -11411,10 +11125,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11441,10 +11153,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -11467,10 +11177,8 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11493,10 +11201,8 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11519,10 +11225,8 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11545,10 +11249,8 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -11583,10 +11285,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -11609,10 +11309,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -11639,10 +11337,8 @@
       </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11669,10 +11365,8 @@
       </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H332" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -11699,10 +11393,8 @@
       </c>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -11729,10 +11421,8 @@
       </c>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11759,10 +11449,8 @@
       </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11789,10 +11477,8 @@
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -11819,10 +11505,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11849,10 +11533,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11879,10 +11561,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11909,10 +11589,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11939,10 +11617,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -11969,10 +11645,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -11999,10 +11673,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12033,10 +11705,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12059,10 +11729,8 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H345" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -12097,10 +11765,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12135,10 +11801,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12169,10 +11833,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12195,10 +11857,8 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12225,10 +11885,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12255,10 +11913,8 @@
       </c>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12281,10 +11937,8 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -12319,10 +11973,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -12357,10 +12009,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -12387,10 +12037,8 @@
       </c>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12417,10 +12065,8 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12451,10 +12097,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12481,10 +12125,8 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12511,10 +12153,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12537,10 +12177,8 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -12563,10 +12201,8 @@
       </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -12615,10 +12251,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H363" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -12645,10 +12279,8 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -12683,10 +12315,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -12713,10 +12343,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12743,10 +12371,8 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12773,10 +12399,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12803,10 +12427,8 @@
       </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -12833,10 +12455,8 @@
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -12871,10 +12491,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12905,10 +12523,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12935,10 +12551,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12965,10 +12579,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -12995,10 +12607,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13025,10 +12635,8 @@
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13055,10 +12663,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13089,10 +12695,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13123,10 +12727,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -13157,10 +12759,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13183,10 +12783,8 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13217,10 +12815,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -13251,10 +12847,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13289,10 +12883,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -13327,10 +12919,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -13365,10 +12955,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13403,10 +12991,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13437,10 +13023,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13471,10 +13055,8 @@
         </is>
       </c>
       <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13501,10 +13083,8 @@
       </c>
       <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr"/>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13531,10 +13111,8 @@
       </c>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr"/>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13557,10 +13135,8 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr"/>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -13591,10 +13167,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -13625,10 +13199,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13651,10 +13223,8 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -13689,10 +13259,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -13715,10 +13283,8 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13745,10 +13311,8 @@
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13771,10 +13335,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13797,10 +13359,8 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13827,10 +13387,8 @@
       </c>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13853,10 +13411,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13879,10 +13435,8 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13905,10 +13459,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -13931,10 +13483,8 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -13957,10 +13507,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -13987,10 +13535,8 @@
       </c>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14021,10 +13567,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -14059,10 +13603,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -14089,10 +13631,8 @@
       </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14115,10 +13655,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -14145,10 +13683,8 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -14171,124 +13707,142 @@
       </c>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr"/>
-      <c r="C414" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Employment ChangeDEC</t>
+        </is>
+      </c>
       <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -14300,63 +13854,67 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -14368,177 +13926,181 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -14550,29 +14112,33 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -14584,27 +14150,31 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr"/>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H426" t="inlineStr">
         <is>
           <t>3</t>
@@ -14614,83 +14184,103 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr"/>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H429" t="inlineStr">
         <is>
           <t>3</t>
@@ -14700,97 +14290,101 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -14802,29 +14396,29 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -14836,29 +14430,29 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -14870,29 +14464,29 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -14904,209 +14498,173 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
-      <c r="E436" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G438" t="inlineStr"/>
       <c r="H438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A439" t="inlineStr"/>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A440" t="inlineStr"/>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
           <t>3</t>
@@ -15114,35 +14672,27 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -15152,149 +14702,113 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
       <c r="D444" t="inlineStr"/>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -15306,29 +14820,33 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -15340,173 +14858,137 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -15518,29 +15000,29 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -15552,69 +15034,41 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
         <is>
           <t>3</t>
@@ -15624,31 +15078,27 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
           <t>3</t>
@@ -15658,31 +15108,27 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
           <t>3</t>
@@ -15692,87 +15138,95 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr"/>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15782,27 +15236,31 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15810,29 +15268,25 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15840,29 +15294,25 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15870,28 +15320,24 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr"/>
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
@@ -15900,27 +15346,31 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -15930,29 +15380,25 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15962,181 +15408,169 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr"/>
-      <c r="C467" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr"/>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -16150,23 +15584,23 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
@@ -16180,43 +15614,63 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -16228,7 +15682,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -16238,21 +15692,17 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
           <t>3</t>
@@ -16262,37 +15712,53 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr"/>
-      <c r="C477" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr"/>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -16304,25 +15770,21 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -16334,11 +15796,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
       <c r="B480" t="inlineStr">
         <is>
           <t>TR</t>
@@ -16346,13 +15804,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -16364,97 +15822,81 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A481" t="inlineStr"/>
       <c r="B481" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A482" t="inlineStr"/>
       <c r="B482" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A483" t="inlineStr"/>
       <c r="B483" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
           <t>3</t>
@@ -16464,57 +15906,45 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -16524,23 +15954,31 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16550,17 +15988,17 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -16576,31 +16014,23 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16610,23 +16040,31 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16636,23 +16074,31 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16662,27 +16108,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16692,23 +16142,23 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
@@ -16722,185 +16172,169 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16910,87 +16344,95 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H501" t="inlineStr">
         <is>
           <t>3</t>
@@ -16998,25 +16440,33 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>3</t>
@@ -17024,21 +16474,25 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
@@ -17050,21 +16504,25 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
@@ -17076,27 +16534,31 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr"/>
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -17106,23 +16568,23 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr"/>
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
-      <c r="E506" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
@@ -17134,43 +16596,59 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr"/>
-      <c r="C507" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D507" t="inlineStr"/>
-      <c r="E507" t="inlineStr"/>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr"/>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -17182,29 +16660,29 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -17216,23 +16694,31 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr"/>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -17242,23 +16728,31 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -17268,772 +16762,50 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G512" t="inlineStr"/>
       <c r="H512" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A513" t="inlineStr"/>
       <c r="B513" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
+      <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>WPI Manufacturing YoYDEC</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>10:05 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr"/>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H513"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13743,10 +13743,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -13777,10 +13775,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -13811,10 +13807,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -13845,10 +13839,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13879,10 +13871,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -13917,10 +13907,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -13955,10 +13943,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -13993,10 +13979,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -14031,10 +14015,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -14069,10 +14051,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -14103,10 +14083,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -14141,10 +14119,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -14175,10 +14151,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -14209,10 +14183,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -14247,10 +14219,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14281,10 +14251,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14315,10 +14283,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14353,10 +14319,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H431" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -14387,10 +14351,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14421,10 +14383,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14455,10 +14415,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -14489,10 +14447,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14515,10 +14471,8 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14545,10 +14499,8 @@
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14575,10 +14527,8 @@
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14605,10 +14555,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14635,10 +14583,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14665,10 +14611,8 @@
         </is>
       </c>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14695,10 +14639,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14725,10 +14667,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14777,10 +14717,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -14811,10 +14749,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -14849,10 +14785,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H447" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -14883,10 +14817,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H448" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -14913,10 +14845,8 @@
       </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -14943,10 +14873,8 @@
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H450" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -14991,10 +14919,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15025,46 +14951,60 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr"/>
-      <c r="C454" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr"/>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr"/>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
@@ -15076,25 +15016,21 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A456" t="inlineStr"/>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
@@ -15106,11 +15042,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
           <t>TR</t>
@@ -15118,13 +15050,13 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
@@ -15136,97 +15068,81 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A458" t="inlineStr"/>
       <c r="B458" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A459" t="inlineStr"/>
       <c r="B459" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A460" t="inlineStr"/>
       <c r="B460" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15236,57 +15152,45 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15296,23 +15200,31 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15322,17 +15234,17 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
@@ -15348,31 +15260,23 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15382,23 +15286,31 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15408,23 +15320,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -15434,27 +15354,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15464,23 +15388,23 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
@@ -15494,185 +15418,169 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
@@ -15682,87 +15590,95 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H478" t="inlineStr">
         <is>
           <t>3</t>
@@ -15770,25 +15686,33 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H479" t="inlineStr">
         <is>
           <t>3</t>
@@ -15796,21 +15720,25 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -15822,21 +15750,25 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
@@ -15848,27 +15780,31 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr"/>
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -15878,23 +15814,23 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr"/>
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
@@ -15906,43 +15842,59 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr"/>
-      <c r="C484" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -15954,29 +15906,29 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -15988,23 +15940,31 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16014,23 +15974,31 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16040,772 +16008,50 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A490" t="inlineStr"/>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
+      <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>WPI Manufacturing YoYDEC</t>
-        </is>
-      </c>
-      <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr"/>
-      <c r="E506" t="inlineStr"/>
-      <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>10:05 AM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr"/>
-      <c r="E507" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr"/>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H543"/>
+  <dimension ref="A1:H521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6195,10 +6195,8 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -6221,10 +6219,8 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H166" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -6247,10 +6243,8 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -6281,10 +6275,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -6321,10 +6313,8 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6355,10 +6345,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -6389,10 +6377,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6427,10 +6413,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -6461,10 +6445,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -6495,10 +6477,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6533,10 +6513,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H176" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -6567,10 +6545,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -6615,10 +6591,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6653,10 +6627,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6687,10 +6659,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6725,10 +6695,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6759,10 +6727,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6793,10 +6759,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6831,10 +6795,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6869,10 +6831,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6907,10 +6867,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6945,10 +6903,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6983,10 +6939,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7021,10 +6975,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -7059,10 +7011,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -7089,10 +7039,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7119,10 +7067,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7149,10 +7095,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7179,10 +7123,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7209,10 +7151,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7239,10 +7179,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7269,10 +7207,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7299,10 +7235,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7329,10 +7263,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7359,10 +7291,8 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7389,10 +7319,8 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -7419,10 +7347,8 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7453,10 +7379,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7491,10 +7415,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7529,10 +7451,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7563,10 +7483,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -7597,10 +7515,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -7631,10 +7547,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7665,10 +7579,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7703,10 +7615,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -7741,10 +7651,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -7779,10 +7687,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7813,10 +7719,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7843,10 +7747,8 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7873,10 +7775,8 @@
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7903,10 +7803,8 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7929,10 +7827,8 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7963,10 +7859,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7997,10 +7891,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8035,10 +7927,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8073,10 +7963,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -8111,10 +7999,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -8145,10 +8031,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8175,10 +8059,8 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -8205,10 +8087,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8235,10 +8115,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8269,10 +8147,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -8299,10 +8175,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8333,10 +8207,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8371,10 +8243,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -8409,10 +8279,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -8443,10 +8311,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8473,10 +8339,8 @@
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8503,10 +8367,8 @@
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8529,10 +8391,8 @@
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8559,10 +8419,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8589,10 +8447,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8619,10 +8475,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8649,10 +8503,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -8679,10 +8531,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8701,10 +8551,8 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8735,10 +8583,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8779,10 +8625,8 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8809,10 +8653,8 @@
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8847,10 +8689,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8881,10 +8721,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8919,10 +8757,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -8957,10 +8793,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -8995,10 +8829,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9025,10 +8857,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9059,10 +8889,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9093,10 +8921,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -9127,10 +8953,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9161,10 +8985,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9195,10 +9017,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -9229,10 +9049,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -9267,10 +9085,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -9301,10 +9117,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9339,10 +9153,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -9369,10 +9181,8 @@
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -9399,10 +9209,8 @@
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -9437,10 +9245,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -9475,10 +9281,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -9513,10 +9317,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -9547,10 +9349,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9581,10 +9381,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9619,10 +9417,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H269" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -9657,10 +9453,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -9691,10 +9485,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9725,10 +9517,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9755,10 +9545,8 @@
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9785,10 +9573,8 @@
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9819,10 +9605,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -9853,10 +9637,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -9887,10 +9669,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -9913,10 +9693,8 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -9951,10 +9729,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9985,10 +9761,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -10019,10 +9793,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -10057,10 +9829,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -10091,10 +9861,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -10125,10 +9893,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -10155,10 +9921,8 @@
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10193,10 +9957,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H286" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -10231,10 +9993,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -10269,10 +10029,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -10303,10 +10061,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10337,10 +10093,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10371,10 +10125,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10405,10 +10157,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10439,10 +10189,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10469,10 +10217,8 @@
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10499,10 +10245,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10529,10 +10273,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -10563,10 +10305,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10601,10 +10341,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -10635,10 +10373,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10661,10 +10397,8 @@
       </c>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10695,10 +10429,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10721,10 +10453,8 @@
       </c>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10747,10 +10477,8 @@
       </c>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -10773,10 +10501,8 @@
       </c>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr"/>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10825,10 +10551,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -10859,10 +10583,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -10897,10 +10619,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10935,10 +10655,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10969,10 +10687,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -11007,10 +10723,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -11045,10 +10759,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -11079,10 +10791,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11109,10 +10819,8 @@
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11139,10 +10847,8 @@
       </c>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11177,10 +10883,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -11215,10 +10919,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -11249,10 +10951,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11287,10 +10987,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11325,10 +11023,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11363,10 +11059,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11397,10 +11091,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11431,10 +11123,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11461,10 +11151,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11495,10 +11183,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11525,10 +11211,8 @@
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11555,10 +11239,8 @@
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11585,10 +11267,8 @@
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -11623,10 +11303,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -11661,10 +11339,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -11691,10 +11367,8 @@
       </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -11717,10 +11391,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11743,10 +11415,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11769,10 +11439,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11795,10 +11463,8 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11833,10 +11499,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11859,10 +11523,8 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -11889,10 +11551,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11919,10 +11579,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -11949,10 +11607,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -11979,10 +11635,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12009,10 +11663,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12039,10 +11691,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12069,10 +11719,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12099,10 +11747,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12129,10 +11775,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12159,10 +11803,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12189,10 +11831,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12219,10 +11859,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12249,10 +11887,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12283,10 +11919,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12309,10 +11943,8 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H352" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -12347,10 +11979,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -12385,10 +12015,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12419,10 +12047,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12449,10 +12075,8 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12475,10 +12099,8 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12501,10 +12123,8 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12531,10 +12151,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12569,10 +12187,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H360" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -12607,10 +12223,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H361" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -12637,10 +12251,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12667,10 +12279,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -12701,10 +12311,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12731,10 +12339,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12761,10 +12367,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12787,10 +12391,8 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12813,10 +12415,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12865,10 +12465,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H370" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -12895,10 +12493,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12933,10 +12529,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12963,10 +12557,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12993,10 +12585,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13023,10 +12613,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13053,10 +12641,8 @@
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13083,10 +12669,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13121,10 +12705,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -13155,10 +12737,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -13185,10 +12765,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13215,10 +12793,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13245,10 +12821,8 @@
       </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13275,10 +12849,8 @@
       </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13305,10 +12877,8 @@
       </c>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13339,10 +12909,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13373,10 +12941,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13407,10 +12973,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13433,10 +12997,8 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13467,10 +13029,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13501,10 +13061,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13539,10 +13097,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -13577,10 +13133,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -13615,10 +13169,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -13653,10 +13205,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13687,10 +13237,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13721,10 +13269,8 @@
         </is>
       </c>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13751,10 +13297,8 @@
       </c>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13781,10 +13325,8 @@
       </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13807,10 +13349,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -13841,10 +13381,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13875,10 +13413,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13901,10 +13437,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -13939,10 +13473,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13965,10 +13497,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13995,10 +13525,8 @@
         </is>
       </c>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14021,10 +13549,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14047,10 +13573,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14077,10 +13601,8 @@
       </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -14103,10 +13625,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -14129,10 +13649,8 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14155,10 +13673,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -14181,10 +13697,8 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -14207,10 +13721,8 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -14237,10 +13749,8 @@
       </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -14271,10 +13781,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -14309,10 +13817,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -14339,10 +13845,8 @@
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -14365,10 +13869,8 @@
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -14395,10 +13897,8 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -14421,124 +13921,142 @@
       </c>
       <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr"/>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr"/>
-      <c r="C421" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Employment ChangeDEC</t>
+        </is>
+      </c>
       <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr"/>
-      <c r="G421" t="inlineStr"/>
-      <c r="H421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -14550,63 +14068,67 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -14618,177 +14140,181 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -14800,29 +14326,33 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F432" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -14834,27 +14364,31 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H433" t="inlineStr">
         <is>
           <t>3</t>
@@ -14864,83 +14398,103 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
-      <c r="E436" t="inlineStr"/>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr"/>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H436" t="inlineStr">
         <is>
           <t>3</t>
@@ -14950,97 +14504,101 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -15052,29 +14610,29 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -15086,29 +14644,29 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -15120,29 +14678,29 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -15154,209 +14712,173 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
           <t>3</t>
@@ -15364,35 +14886,27 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -15402,149 +14916,113 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -15556,29 +15034,33 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -15590,173 +15072,137 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -15768,29 +15214,29 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -15802,69 +15248,41 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15874,31 +15292,27 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15908,31 +15322,27 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15942,87 +15352,95 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16032,27 +15450,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -16060,29 +15482,25 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -16090,29 +15508,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16120,28 +15534,24 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
@@ -16150,27 +15560,31 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -16180,29 +15594,25 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -16212,181 +15622,169 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -16400,23 +15798,23 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -16430,43 +15828,63 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -16478,7 +15896,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -16488,21 +15906,17 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
           <t>3</t>
@@ -16512,37 +15926,53 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr"/>
-      <c r="C484" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
@@ -16554,25 +15984,21 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A486" t="inlineStr"/>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
@@ -16584,11 +16010,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
           <t>TR</t>
@@ -16596,13 +16018,13 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -16614,97 +16036,81 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A488" t="inlineStr"/>
       <c r="B488" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A489" t="inlineStr"/>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A490" t="inlineStr"/>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16714,57 +16120,45 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16774,23 +16168,31 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H493" t="inlineStr">
         <is>
           <t>3</t>
@@ -16800,17 +16202,17 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
@@ -16826,31 +16228,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16860,23 +16254,31 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H496" t="inlineStr">
         <is>
           <t>3</t>
@@ -16886,23 +16288,31 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H497" t="inlineStr">
         <is>
           <t>3</t>
@@ -16912,27 +16322,31 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16942,23 +16356,23 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
@@ -16972,185 +16386,169 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -17160,87 +16558,95 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -17248,25 +16654,33 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -17274,21 +16688,25 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -17300,21 +16718,25 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -17326,27 +16748,31 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr"/>
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -17356,23 +16782,23 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr"/>
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
@@ -17384,43 +16810,59 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr"/>
-      <c r="C514" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr"/>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -17432,29 +16874,29 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -17466,23 +16908,31 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>3</t>
@@ -17492,23 +16942,31 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr"/>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17518,77 +16976,57 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A520" t="inlineStr"/>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
+      <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A521" t="inlineStr"/>
       <c r="B521" t="inlineStr">
         <is>
           <t>IN</t>
@@ -17596,694 +17034,18 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr"/>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>10:05 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H537"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6581,10 +6581,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -6619,10 +6617,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -6657,10 +6653,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6695,10 +6689,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -6733,10 +6725,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6771,10 +6761,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6809,10 +6797,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6839,10 +6825,8 @@
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6869,10 +6853,8 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6899,10 +6881,8 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6929,10 +6909,8 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -6959,10 +6937,8 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -6989,10 +6965,8 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7019,10 +6993,8 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7049,10 +7021,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7079,10 +7049,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7109,10 +7077,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7139,10 +7105,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7169,10 +7133,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7203,10 +7165,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7241,10 +7201,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H198" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -7279,10 +7237,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7313,10 +7269,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -7347,10 +7301,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H201" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -7381,10 +7333,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -7415,10 +7365,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7453,10 +7401,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -7491,10 +7437,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7529,10 +7473,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7563,10 +7505,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -7593,10 +7533,8 @@
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -7623,10 +7561,8 @@
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -7653,10 +7589,8 @@
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7679,10 +7613,8 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -7713,10 +7645,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7747,10 +7677,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7785,10 +7713,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -7823,10 +7749,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -7861,10 +7785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -7895,10 +7817,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7925,10 +7845,8 @@
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -7955,10 +7873,8 @@
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7985,10 +7901,8 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8019,10 +7933,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8049,10 +7961,8 @@
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -8083,10 +7993,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -8121,10 +8029,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H224" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -8159,10 +8065,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -8193,10 +8097,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8223,10 +8125,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8253,10 +8153,8 @@
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -8279,10 +8177,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8309,10 +8205,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8339,10 +8233,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8369,10 +8261,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8399,10 +8289,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8429,10 +8317,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8451,10 +8337,8 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8485,10 +8369,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8529,10 +8411,8 @@
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8559,10 +8439,8 @@
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8597,10 +8475,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8631,10 +8507,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -8669,10 +8543,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -8707,10 +8579,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -8745,10 +8615,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8775,10 +8643,8 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8809,10 +8675,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8843,10 +8707,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -8877,10 +8739,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8911,10 +8771,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8945,10 +8803,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -8979,10 +8835,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9017,10 +8871,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -9051,10 +8903,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9089,10 +8939,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -9119,10 +8967,8 @@
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9149,10 +8995,8 @@
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9187,10 +9031,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -9225,10 +9067,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -9263,10 +9103,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -9297,10 +9135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -9331,10 +9167,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -9369,10 +9203,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -9407,10 +9239,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -9441,10 +9271,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -9475,10 +9303,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -9505,10 +9331,8 @@
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -9535,10 +9359,8 @@
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -9569,10 +9391,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9603,10 +9423,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9637,10 +9455,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -9663,10 +9479,8 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -9701,10 +9515,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H272" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -9735,10 +9547,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9769,10 +9579,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9807,10 +9615,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9841,10 +9647,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -9875,10 +9679,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -9905,10 +9707,8 @@
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9943,10 +9743,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9981,10 +9779,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H280" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -10019,10 +9815,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H281" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -10053,10 +9847,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -10087,10 +9879,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -10121,10 +9911,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -10155,10 +9943,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10189,10 +9975,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -10219,10 +10003,8 @@
       </c>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -10249,10 +10031,8 @@
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -10279,10 +10059,8 @@
       </c>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -10313,10 +10091,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10351,10 +10127,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -10385,10 +10159,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10411,10 +10183,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10445,10 +10215,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10471,10 +10239,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10497,10 +10263,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10523,10 +10287,8 @@
       </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10575,10 +10337,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H299" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -10609,10 +10369,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10647,10 +10405,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -10685,10 +10441,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -10719,10 +10473,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -10757,10 +10509,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -10795,10 +10545,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10829,10 +10577,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10859,10 +10605,8 @@
       </c>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -10889,10 +10633,8 @@
       </c>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -10927,10 +10669,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10965,10 +10705,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -10999,10 +10737,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -11037,10 +10773,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11075,10 +10809,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11113,10 +10845,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11147,10 +10877,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11181,10 +10909,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -11211,10 +10937,8 @@
       </c>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11245,10 +10969,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11275,10 +10997,8 @@
       </c>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11305,10 +11025,8 @@
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr"/>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11335,10 +11053,8 @@
       </c>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11373,10 +11089,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -11411,10 +11125,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11441,10 +11153,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -11467,10 +11177,8 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11493,10 +11201,8 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11519,10 +11225,8 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11545,10 +11249,8 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -11583,10 +11285,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -11609,10 +11309,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -11639,10 +11337,8 @@
       </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11669,10 +11365,8 @@
       </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H332" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -11699,10 +11393,8 @@
       </c>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -11729,10 +11421,8 @@
       </c>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11759,10 +11449,8 @@
       </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11789,10 +11477,8 @@
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -11819,10 +11505,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11849,10 +11533,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11879,10 +11561,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11909,10 +11589,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11939,10 +11617,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -11969,10 +11645,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -11999,10 +11673,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12033,10 +11705,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12059,10 +11729,8 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H345" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -12097,10 +11765,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12135,10 +11801,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12169,10 +11833,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12195,10 +11857,8 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12225,10 +11885,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12255,10 +11913,8 @@
       </c>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12281,10 +11937,8 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -12319,10 +11973,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -12357,10 +12009,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -12387,10 +12037,8 @@
       </c>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12417,10 +12065,8 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12451,10 +12097,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12481,10 +12125,8 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12511,10 +12153,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12537,10 +12177,8 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -12563,10 +12201,8 @@
       </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -12615,10 +12251,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H363" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -12645,10 +12279,8 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -12683,10 +12315,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -12713,10 +12343,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12743,10 +12371,8 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12773,10 +12399,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12803,10 +12427,8 @@
       </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -12833,10 +12455,8 @@
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -12871,10 +12491,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12905,10 +12523,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12935,10 +12551,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12965,10 +12579,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -12995,10 +12607,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13025,10 +12635,8 @@
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13055,10 +12663,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13089,10 +12695,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13123,10 +12727,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -13157,10 +12759,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13183,10 +12783,8 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13217,10 +12815,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -13251,10 +12847,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13289,10 +12883,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -13327,10 +12919,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -13365,10 +12955,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13403,10 +12991,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13437,10 +13023,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13471,10 +13055,8 @@
         </is>
       </c>
       <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13501,10 +13083,8 @@
       </c>
       <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr"/>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13531,10 +13111,8 @@
       </c>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr"/>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13557,10 +13135,8 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr"/>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -13591,10 +13167,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -13625,10 +13199,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13651,10 +13223,8 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -13689,10 +13259,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -13715,10 +13283,8 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13745,10 +13311,8 @@
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13771,10 +13335,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13797,10 +13359,8 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13827,10 +13387,8 @@
       </c>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13853,10 +13411,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13879,10 +13435,8 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13905,10 +13459,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -13931,10 +13483,8 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -13957,10 +13507,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -13987,10 +13535,8 @@
       </c>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14021,10 +13567,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -14059,10 +13603,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -14089,10 +13631,8 @@
       </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14115,10 +13655,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -14145,10 +13683,8 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -14171,124 +13707,142 @@
       </c>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr"/>
-      <c r="C414" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Employment ChangeDEC</t>
+        </is>
+      </c>
       <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -14300,63 +13854,67 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -14368,177 +13926,181 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -14550,29 +14112,33 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -14584,27 +14150,31 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr"/>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H426" t="inlineStr">
         <is>
           <t>3</t>
@@ -14614,83 +14184,103 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr"/>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H429" t="inlineStr">
         <is>
           <t>3</t>
@@ -14700,97 +14290,101 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -14802,29 +14396,29 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -14836,29 +14430,29 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -14870,29 +14464,29 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -14904,209 +14498,173 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
-      <c r="E436" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G438" t="inlineStr"/>
       <c r="H438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A439" t="inlineStr"/>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A440" t="inlineStr"/>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
           <t>3</t>
@@ -15114,35 +14672,27 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -15152,149 +14702,113 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
       <c r="D444" t="inlineStr"/>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -15306,29 +14820,33 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -15340,173 +14858,137 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -15518,29 +15000,29 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -15552,69 +15034,41 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
         <is>
           <t>3</t>
@@ -15624,31 +15078,27 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
           <t>3</t>
@@ -15658,31 +15108,27 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
           <t>3</t>
@@ -15692,87 +15138,95 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr"/>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15782,27 +15236,31 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15810,29 +15268,25 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15840,29 +15294,25 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15870,28 +15320,24 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr"/>
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
@@ -15900,27 +15346,31 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -15930,29 +15380,25 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15962,181 +15408,169 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr"/>
-      <c r="C467" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr"/>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -16150,23 +15584,23 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
@@ -16180,43 +15614,63 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -16228,7 +15682,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -16238,21 +15692,17 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
           <t>3</t>
@@ -16262,37 +15712,53 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr"/>
-      <c r="C477" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr"/>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -16304,25 +15770,21 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -16334,11 +15796,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
       <c r="B480" t="inlineStr">
         <is>
           <t>TR</t>
@@ -16346,13 +15804,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -16364,97 +15822,81 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A481" t="inlineStr"/>
       <c r="B481" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A482" t="inlineStr"/>
       <c r="B482" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A483" t="inlineStr"/>
       <c r="B483" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
           <t>3</t>
@@ -16464,57 +15906,45 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -16524,23 +15954,31 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16550,17 +15988,17 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -16576,31 +16014,23 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16610,23 +16040,31 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16636,23 +16074,31 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16662,27 +16108,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16692,23 +16142,23 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
@@ -16722,185 +16172,169 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16910,87 +16344,95 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H501" t="inlineStr">
         <is>
           <t>3</t>
@@ -16998,25 +16440,33 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>3</t>
@@ -17024,21 +16474,25 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
@@ -17050,21 +16504,25 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
@@ -17076,27 +16534,31 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr"/>
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -17106,23 +16568,23 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr"/>
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
-      <c r="E506" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
@@ -17134,43 +16596,59 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr"/>
-      <c r="C507" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D507" t="inlineStr"/>
-      <c r="E507" t="inlineStr"/>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr"/>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -17182,29 +16660,29 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -17216,23 +16694,31 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr"/>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -17242,23 +16728,31 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -17268,77 +16762,57 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G512" t="inlineStr"/>
       <c r="H512" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A513" t="inlineStr"/>
       <c r="B513" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
+      <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr">
         <is>
           <t>IN</t>
@@ -17346,720 +16820,18 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>10:05 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr"/>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr"/>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H547"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6195,10 +6195,8 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -6221,10 +6219,8 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H166" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -6247,10 +6243,8 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -6281,10 +6275,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -6321,10 +6313,8 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6355,10 +6345,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -6389,10 +6377,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6427,10 +6413,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -6461,10 +6445,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -6495,10 +6477,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6533,10 +6513,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H176" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -6567,10 +6545,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -6615,10 +6591,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6653,10 +6627,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6687,10 +6659,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6725,10 +6695,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6759,10 +6727,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6793,10 +6759,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6831,10 +6795,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6869,10 +6831,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6907,10 +6867,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6945,10 +6903,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6983,10 +6939,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7021,10 +6975,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -7059,10 +7011,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -7089,10 +7039,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7119,10 +7067,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7149,10 +7095,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7179,10 +7123,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7209,10 +7151,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7239,10 +7179,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7269,10 +7207,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7299,10 +7235,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7329,10 +7263,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7359,10 +7291,8 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7389,10 +7319,8 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -7419,10 +7347,8 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7453,10 +7379,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7491,10 +7415,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7529,10 +7451,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7563,10 +7483,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -7597,10 +7515,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -7631,10 +7547,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7665,10 +7579,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7703,10 +7615,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -7741,10 +7651,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -7779,10 +7687,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7813,10 +7719,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7843,10 +7747,8 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7873,10 +7775,8 @@
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7903,10 +7803,8 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7929,10 +7827,8 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7963,10 +7859,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7997,10 +7891,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8035,10 +7927,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8073,10 +7963,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -8111,10 +7999,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -8145,10 +8031,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8175,10 +8059,8 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -8205,10 +8087,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8235,10 +8115,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8269,10 +8147,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -8299,10 +8175,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8333,10 +8207,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8371,10 +8243,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -8409,10 +8279,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -8443,10 +8311,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8473,10 +8339,8 @@
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8503,10 +8367,8 @@
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8529,10 +8391,8 @@
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8559,10 +8419,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8589,10 +8447,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8619,10 +8475,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8649,10 +8503,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -8679,10 +8531,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8701,10 +8551,8 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8735,10 +8583,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8779,10 +8625,8 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8809,10 +8653,8 @@
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8847,10 +8689,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8881,10 +8721,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8919,10 +8757,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -8957,10 +8793,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -8995,10 +8829,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9025,10 +8857,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9059,10 +8889,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9093,10 +8921,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -9127,10 +8953,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9161,10 +8985,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9195,10 +9017,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -9229,10 +9049,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -9267,10 +9085,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -9301,10 +9117,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9339,10 +9153,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -9369,10 +9181,8 @@
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -9399,10 +9209,8 @@
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -9437,10 +9245,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -9475,10 +9281,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -9513,10 +9317,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -9547,10 +9349,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9581,10 +9381,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9619,10 +9417,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H269" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -9657,10 +9453,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -9691,10 +9485,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9725,10 +9517,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9755,10 +9545,8 @@
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9785,10 +9573,8 @@
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9819,10 +9605,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -9853,10 +9637,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -9887,10 +9669,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -9913,10 +9693,8 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -9951,10 +9729,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9985,10 +9761,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -10019,10 +9793,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -10057,10 +9829,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -10091,10 +9861,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -10125,10 +9893,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -10155,10 +9921,8 @@
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10193,10 +9957,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H286" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -10231,10 +9993,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -10269,10 +10029,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -10303,10 +10061,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10337,10 +10093,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10371,10 +10125,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10405,10 +10157,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10439,10 +10189,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10469,10 +10217,8 @@
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10499,10 +10245,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10529,10 +10273,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -10563,10 +10305,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10601,10 +10341,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -10635,10 +10373,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10661,10 +10397,8 @@
       </c>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10695,10 +10429,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10721,10 +10453,8 @@
       </c>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10747,10 +10477,8 @@
       </c>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -10773,10 +10501,8 @@
       </c>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr"/>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10825,10 +10551,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -10859,10 +10583,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -10897,10 +10619,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10935,10 +10655,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10969,10 +10687,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -11007,10 +10723,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -11045,10 +10759,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -11079,10 +10791,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11109,10 +10819,8 @@
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11139,10 +10847,8 @@
       </c>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11177,10 +10883,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -11215,10 +10919,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -11249,10 +10951,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11287,10 +10987,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11325,10 +11023,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11363,10 +11059,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11397,10 +11091,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11431,10 +11123,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11461,10 +11151,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11495,10 +11183,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11525,10 +11211,8 @@
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11555,10 +11239,8 @@
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11585,10 +11267,8 @@
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -11623,10 +11303,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -11661,10 +11339,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -11691,10 +11367,8 @@
       </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -11717,10 +11391,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11743,10 +11415,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11769,10 +11439,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11795,10 +11463,8 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11833,10 +11499,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11859,10 +11523,8 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -11889,10 +11551,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11919,10 +11579,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -11949,10 +11607,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -11979,10 +11635,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12009,10 +11663,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12039,10 +11691,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12069,10 +11719,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12099,10 +11747,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12129,10 +11775,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12159,10 +11803,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12189,10 +11831,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12219,10 +11859,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12249,10 +11887,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12283,10 +11919,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12309,10 +11943,8 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H352" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -12347,10 +11979,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -12385,10 +12015,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12419,10 +12047,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12449,10 +12075,8 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12475,10 +12099,8 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12501,10 +12123,8 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12531,10 +12151,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12569,10 +12187,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H360" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -12607,10 +12223,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H361" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -12637,10 +12251,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12667,10 +12279,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -12701,10 +12311,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12731,10 +12339,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12761,10 +12367,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12787,10 +12391,8 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12813,10 +12415,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12865,10 +12465,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H370" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -12895,10 +12493,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12933,10 +12529,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12963,10 +12557,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12993,10 +12585,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13023,10 +12613,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13053,10 +12641,8 @@
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13083,10 +12669,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13121,10 +12705,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -13155,10 +12737,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -13185,10 +12765,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13215,10 +12793,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13245,10 +12821,8 @@
       </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13275,10 +12849,8 @@
       </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13305,10 +12877,8 @@
       </c>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13339,10 +12909,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13373,10 +12941,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13407,10 +12973,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13433,10 +12997,8 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13467,10 +13029,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13501,10 +13061,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13539,10 +13097,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -13577,10 +13133,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -13615,10 +13169,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -13653,10 +13205,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13687,10 +13237,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13721,10 +13269,8 @@
         </is>
       </c>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13751,10 +13297,8 @@
       </c>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13781,10 +13325,8 @@
       </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13807,10 +13349,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -13841,10 +13381,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13875,10 +13413,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13901,10 +13437,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -13939,10 +13473,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13965,10 +13497,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13995,10 +13525,8 @@
         </is>
       </c>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14021,10 +13549,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14047,10 +13573,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14077,10 +13601,8 @@
       </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -14103,10 +13625,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -14129,10 +13649,8 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14155,10 +13673,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -14181,10 +13697,8 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -14207,10 +13721,8 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -14237,10 +13749,8 @@
       </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -14271,10 +13781,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -14309,10 +13817,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -14339,10 +13845,8 @@
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -14365,10 +13869,8 @@
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -14395,10 +13897,8 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -14421,124 +13921,142 @@
       </c>
       <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr"/>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr"/>
-      <c r="C421" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Employment ChangeDEC</t>
+        </is>
+      </c>
       <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr"/>
-      <c r="G421" t="inlineStr"/>
-      <c r="H421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -14550,63 +14068,67 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -14618,177 +14140,181 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -14800,29 +14326,33 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F432" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -14834,27 +14364,31 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H433" t="inlineStr">
         <is>
           <t>3</t>
@@ -14864,83 +14398,103 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
-      <c r="E436" t="inlineStr"/>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr"/>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H436" t="inlineStr">
         <is>
           <t>3</t>
@@ -14950,97 +14504,101 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -15052,29 +14610,29 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -15086,29 +14644,29 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -15120,29 +14678,29 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -15154,209 +14712,173 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
           <t>3</t>
@@ -15364,35 +14886,27 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -15402,149 +14916,113 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -15556,29 +15034,33 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -15590,173 +15072,137 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -15768,29 +15214,29 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -15802,69 +15248,41 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15874,31 +15292,27 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15908,31 +15322,27 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15942,87 +15352,95 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16032,27 +15450,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -16060,29 +15482,25 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -16090,29 +15508,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16120,28 +15534,24 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
@@ -16150,27 +15560,31 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -16180,29 +15594,25 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -16212,181 +15622,169 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -16400,23 +15798,23 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -16430,43 +15828,63 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -16478,7 +15896,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -16488,21 +15906,17 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
           <t>3</t>
@@ -16512,37 +15926,53 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr"/>
-      <c r="C484" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
@@ -16554,25 +15984,21 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A486" t="inlineStr"/>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
@@ -16584,11 +16010,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
           <t>TR</t>
@@ -16596,13 +16018,13 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -16614,97 +16036,81 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A488" t="inlineStr"/>
       <c r="B488" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A489" t="inlineStr"/>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A490" t="inlineStr"/>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16714,57 +16120,45 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16774,23 +16168,31 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H493" t="inlineStr">
         <is>
           <t>3</t>
@@ -16800,17 +16202,17 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
@@ -16826,31 +16228,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16860,23 +16254,31 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H496" t="inlineStr">
         <is>
           <t>3</t>
@@ -16886,23 +16288,31 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H497" t="inlineStr">
         <is>
           <t>3</t>
@@ -16912,27 +16322,31 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16942,23 +16356,23 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
@@ -16972,185 +16386,169 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -17160,87 +16558,95 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -17248,25 +16654,33 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -17274,21 +16688,25 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -17300,21 +16718,25 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -17326,27 +16748,31 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr"/>
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -17356,23 +16782,23 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr"/>
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
@@ -17384,43 +16810,59 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr"/>
-      <c r="C514" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr"/>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -17432,29 +16874,29 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -17466,23 +16908,31 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>3</t>
@@ -17492,23 +16942,31 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr"/>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17518,99 +16976,87 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>$ 2.8B</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
         <is>
           <t>3</t>
@@ -17620,23 +17066,23 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
@@ -17648,762 +17094,52 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A523" t="inlineStr"/>
       <c r="B523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A524" t="inlineStr"/>
       <c r="B524" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr"/>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>10:05 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>$4.42B</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr"/>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr"/>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
         <is>
           <t>3</t>
         </is>
